--- a/Métriques discriminantes/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_physical.xlsx
+++ b/Métriques discriminantes/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_physical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,714 +653,1190 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_tip</t>
+          <t>highaccel_count_full_all</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>260.9359912541216</v>
+        <v>66.81213264300074</v>
       </c>
       <c r="C7" t="n">
-        <v>249.8672855776814</v>
+        <v>63.82263756260543</v>
       </c>
       <c r="D7" t="n">
-        <v>4.43</v>
+        <v>4.68</v>
       </c>
       <c r="E7" t="n">
-        <v>16.95666447451088</v>
+        <v>6.33076573702692</v>
       </c>
       <c r="F7" t="n">
-        <v>18.5851248816636</v>
+        <v>3.887437053059958</v>
       </c>
       <c r="G7" t="n">
-        <v>233.8347715843163</v>
+        <v>60.44618306696288</v>
       </c>
       <c r="H7" t="n">
-        <v>223.6140481905484</v>
+        <v>56.24170559614623</v>
       </c>
       <c r="I7" t="n">
-        <v>278.0250160352341</v>
+        <v>76.61872944817318</v>
       </c>
       <c r="J7" t="n">
-        <v>289.7676027772649</v>
+        <v>70.1479238976912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>meddecel_count_full_tip</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35483.45315552852</v>
+        <v>260.9359912541216</v>
       </c>
       <c r="C8" t="n">
-        <v>34213.03794152191</v>
+        <v>249.8672855776814</v>
       </c>
       <c r="D8" t="n">
-        <v>3.71</v>
+        <v>4.43</v>
       </c>
       <c r="E8" t="n">
-        <v>1779.777983213065</v>
+        <v>16.95666447451088</v>
       </c>
       <c r="F8" t="n">
-        <v>2197.813938713118</v>
+        <v>18.5851248816636</v>
       </c>
       <c r="G8" t="n">
-        <v>32647.87026909309</v>
+        <v>233.8347715843163</v>
       </c>
       <c r="H8" t="n">
-        <v>30965.54675942479</v>
+        <v>223.6140481905484</v>
       </c>
       <c r="I8" t="n">
-        <v>36984.78942497371</v>
+        <v>278.0250160352341</v>
       </c>
       <c r="J8" t="n">
-        <v>38666.44617415352</v>
+        <v>289.7676027772649</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_tip</t>
+          <t>total_distance_full_tip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.34931314487949</v>
+        <v>35483.45315552852</v>
       </c>
       <c r="C9" t="n">
-        <v>37.94439031012171</v>
+        <v>34213.03794152191</v>
       </c>
       <c r="D9" t="n">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="E9" t="n">
-        <v>2.27103105593123</v>
+        <v>1779.777983213065</v>
       </c>
       <c r="F9" t="n">
-        <v>3.672266351188446</v>
+        <v>2197.813938713118</v>
       </c>
       <c r="G9" t="n">
-        <v>36.12928511257346</v>
+        <v>32647.87026909309</v>
       </c>
       <c r="H9" t="n">
-        <v>32.77406582441426</v>
+        <v>30965.54675942479</v>
       </c>
       <c r="I9" t="n">
-        <v>42.10090083547875</v>
+        <v>36984.78942497371</v>
       </c>
       <c r="J9" t="n">
-        <v>44.43655945661627</v>
+        <v>38666.44617415352</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>sprint_count_full_tip</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6853.733652790443</v>
+        <v>39.34931314487949</v>
       </c>
       <c r="C10" t="n">
-        <v>7090.395590995666</v>
+        <v>37.94439031012171</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.34</v>
+        <v>3.7</v>
       </c>
       <c r="E10" t="n">
-        <v>261.7312196234597</v>
+        <v>2.27103105593123</v>
       </c>
       <c r="F10" t="n">
-        <v>824.1695915250681</v>
+        <v>3.672266351188446</v>
       </c>
       <c r="G10" t="n">
-        <v>6461.814865793849</v>
+        <v>36.12928511257346</v>
       </c>
       <c r="H10" t="n">
-        <v>5857.257841365194</v>
+        <v>32.77406582441426</v>
       </c>
       <c r="I10" t="n">
-        <v>7116.883714345494</v>
+        <v>42.10090083547875</v>
       </c>
       <c r="J10" t="n">
-        <v>9202.918048062398</v>
+        <v>44.43655945661627</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>running_distance_full_otip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>367.4935104648872</v>
+        <v>6853.733652790443</v>
       </c>
       <c r="C11" t="n">
-        <v>355.7742733909068</v>
+        <v>7090.395590995666</v>
       </c>
       <c r="D11" t="n">
-        <v>3.29</v>
+        <v>-3.34</v>
       </c>
       <c r="E11" t="n">
-        <v>26.73875633393764</v>
+        <v>261.7312196234597</v>
       </c>
       <c r="F11" t="n">
-        <v>23.04717293601096</v>
+        <v>824.1695915250681</v>
       </c>
       <c r="G11" t="n">
-        <v>325.3385808165229</v>
+        <v>6461.814865793849</v>
       </c>
       <c r="H11" t="n">
-        <v>323.6035574796436</v>
+        <v>5857.257841365194</v>
       </c>
       <c r="I11" t="n">
-        <v>393.013095416546</v>
+        <v>7116.883714345494</v>
       </c>
       <c r="J11" t="n">
-        <v>403.1707345705044</v>
+        <v>9202.918048062398</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_tip</t>
+          <t>medaccel_count_full_tip</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5652.00052074328</v>
+        <v>367.4935104648872</v>
       </c>
       <c r="C12" t="n">
-        <v>5477.507365740687</v>
+        <v>355.7742733909068</v>
       </c>
       <c r="D12" t="n">
-        <v>3.19</v>
+        <v>3.29</v>
       </c>
       <c r="E12" t="n">
-        <v>398.953218813526</v>
+        <v>26.73875633393764</v>
       </c>
       <c r="F12" t="n">
-        <v>388.379698055164</v>
+        <v>23.04717293601096</v>
       </c>
       <c r="G12" t="n">
-        <v>5243.529566463166</v>
+        <v>325.3385808165229</v>
       </c>
       <c r="H12" t="n">
-        <v>4769.842932808218</v>
+        <v>323.6035574796436</v>
       </c>
       <c r="I12" t="n">
-        <v>6237.721800697452</v>
+        <v>393.013095416546</v>
       </c>
       <c r="J12" t="n">
-        <v>6193.01590876589</v>
+        <v>403.1707345705044</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>running_distance_full_tip</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.3315748917781</v>
+        <v>5652.00052074328</v>
       </c>
       <c r="C13" t="n">
-        <v>425.1069623861311</v>
+        <v>5477.507365740687</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.77</v>
+        <v>3.19</v>
       </c>
       <c r="E13" t="n">
-        <v>19.46897222949351</v>
+        <v>398.953218813526</v>
       </c>
       <c r="F13" t="n">
-        <v>30.51045719714014</v>
+        <v>388.379698055164</v>
       </c>
       <c r="G13" t="n">
-        <v>396.2543559713862</v>
+        <v>5243.529566463166</v>
       </c>
       <c r="H13" t="n">
-        <v>360.4221816733501</v>
+        <v>4769.842932808218</v>
       </c>
       <c r="I13" t="n">
-        <v>444.7572931794446</v>
+        <v>6237.721800697452</v>
       </c>
       <c r="J13" t="n">
-        <v>467.8653562805059</v>
+        <v>6193.01590876589</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_otip</t>
+          <t>medaccel_count_full_otip</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>707.7137791400927</v>
+        <v>413.3315748917781</v>
       </c>
       <c r="C14" t="n">
-        <v>727.1140904712177</v>
+        <v>425.1069623861311</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.67</v>
+        <v>-2.77</v>
       </c>
       <c r="E14" t="n">
-        <v>37.16671986120333</v>
+        <v>19.46897222949351</v>
       </c>
       <c r="F14" t="n">
-        <v>125.5787783588835</v>
+        <v>30.51045719714014</v>
       </c>
       <c r="G14" t="n">
-        <v>654.4873509197188</v>
+        <v>396.2543559713862</v>
       </c>
       <c r="H14" t="n">
-        <v>557.7131031458366</v>
+        <v>360.4221816733501</v>
       </c>
       <c r="I14" t="n">
-        <v>757.7201179376283</v>
+        <v>444.7572931794446</v>
       </c>
       <c r="J14" t="n">
-        <v>1100.605823962163</v>
+        <v>467.8653562805059</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>sprint_distance_full_otip</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>37.16239915648865</v>
+        <v>707.7137791400927</v>
       </c>
       <c r="C15" t="n">
-        <v>38.1755827592341</v>
+        <v>727.1140904712177</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.65</v>
+        <v>-2.67</v>
       </c>
       <c r="E15" t="n">
-        <v>1.85777303925926</v>
+        <v>37.16671986120333</v>
       </c>
       <c r="F15" t="n">
-        <v>7.204822822810137</v>
+        <v>125.5787783588835</v>
       </c>
       <c r="G15" t="n">
-        <v>34.32881547899326</v>
+        <v>654.4873509197188</v>
       </c>
       <c r="H15" t="n">
-        <v>29.90705738630099</v>
+        <v>557.7131031458366</v>
       </c>
       <c r="I15" t="n">
-        <v>39.44895443994156</v>
+        <v>757.7201179376283</v>
       </c>
       <c r="J15" t="n">
-        <v>60.41563664314325</v>
+        <v>1100.605823962163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>sprint_count_full_otip</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2983.627093050226</v>
+        <v>37.16239915648865</v>
       </c>
       <c r="C16" t="n">
-        <v>2906.84415604861</v>
+        <v>38.1755827592341</v>
       </c>
       <c r="D16" t="n">
-        <v>2.64</v>
+        <v>-2.65</v>
       </c>
       <c r="E16" t="n">
-        <v>192.6248345487242</v>
+        <v>1.85777303925926</v>
       </c>
       <c r="F16" t="n">
-        <v>228.6704536234355</v>
+        <v>7.204822822810137</v>
       </c>
       <c r="G16" t="n">
-        <v>2741.886148356625</v>
+        <v>34.32881547899326</v>
       </c>
       <c r="H16" t="n">
-        <v>2574.649203297054</v>
+        <v>29.90705738630099</v>
       </c>
       <c r="I16" t="n">
-        <v>3187.861066187726</v>
+        <v>39.44895443994156</v>
       </c>
       <c r="J16" t="n">
-        <v>3292.476696441771</v>
+        <v>60.41563664314325</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>hi_distance_full_tip</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>248.7348905139809</v>
+        <v>2983.627093050226</v>
       </c>
       <c r="C17" t="n">
-        <v>242.7086526873697</v>
+        <v>2906.84415604861</v>
       </c>
       <c r="D17" t="n">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="E17" t="n">
-        <v>17.97719918149894</v>
+        <v>192.6248345487242</v>
       </c>
       <c r="F17" t="n">
-        <v>18.18235700935413</v>
+        <v>228.6704536234355</v>
       </c>
       <c r="G17" t="n">
-        <v>225.1166050882141</v>
+        <v>2741.886148356625</v>
       </c>
       <c r="H17" t="n">
-        <v>216.4225409928567</v>
+        <v>2574.649203297054</v>
       </c>
       <c r="I17" t="n">
-        <v>267.7479426716968</v>
+        <v>3187.861066187726</v>
       </c>
       <c r="J17" t="n">
-        <v>276.4090780947945</v>
+        <v>3292.476696441771</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>hi_count_full_tip</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>209.3855773691015</v>
+        <v>248.7348905139809</v>
       </c>
       <c r="C18" t="n">
-        <v>204.764262377248</v>
+        <v>242.7086526873697</v>
       </c>
       <c r="D18" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="E18" t="n">
-        <v>15.76290027667297</v>
+        <v>17.97719918149894</v>
       </c>
       <c r="F18" t="n">
-        <v>14.67104467656554</v>
+        <v>18.18235700935413</v>
       </c>
       <c r="G18" t="n">
-        <v>188.9873199756406</v>
+        <v>225.1166050882141</v>
       </c>
       <c r="H18" t="n">
-        <v>183.1214673779982</v>
+        <v>216.4225409928567</v>
       </c>
       <c r="I18" t="n">
-        <v>225.6470418362181</v>
+        <v>267.7479426716968</v>
       </c>
       <c r="J18" t="n">
-        <v>231.9725186381782</v>
+        <v>276.4090780947945</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>hsr_count_full_tip</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.9885927830018</v>
+        <v>209.3855773691015</v>
       </c>
       <c r="C19" t="n">
-        <v>20.55151676233293</v>
+        <v>204.764262377248</v>
       </c>
       <c r="D19" t="n">
-        <v>2.13</v>
+        <v>2.26</v>
       </c>
       <c r="E19" t="n">
-        <v>1.644643387792927</v>
+        <v>15.76290027667297</v>
       </c>
       <c r="F19" t="n">
-        <v>1.072954953754047</v>
+        <v>14.67104467656554</v>
       </c>
       <c r="G19" t="n">
-        <v>19.01366400801037</v>
+        <v>188.9873199756406</v>
       </c>
       <c r="H19" t="n">
-        <v>19.16336104346119</v>
+        <v>183.1214673779982</v>
       </c>
       <c r="I19" t="n">
-        <v>23.50821093050978</v>
+        <v>225.6470418362181</v>
       </c>
       <c r="J19" t="n">
-        <v>22.64911874439506</v>
+        <v>231.9725186381782</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>highaccel_count_full_otip</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2201.811615276843</v>
+        <v>20.9885927830018</v>
       </c>
       <c r="C20" t="n">
-        <v>2164.638620428413</v>
+        <v>20.55151676233293</v>
       </c>
       <c r="D20" t="n">
-        <v>1.72</v>
+        <v>2.13</v>
       </c>
       <c r="E20" t="n">
-        <v>162.1337972889364</v>
+        <v>1.644643387792927</v>
       </c>
       <c r="F20" t="n">
-        <v>165.4497535123431</v>
+        <v>1.072954953754047</v>
       </c>
       <c r="G20" t="n">
-        <v>2028.882743576388</v>
+        <v>19.01366400801037</v>
       </c>
       <c r="H20" t="n">
-        <v>1895.187098614456</v>
+        <v>19.16336104346119</v>
       </c>
       <c r="I20" t="n">
-        <v>2404.758738272372</v>
+        <v>23.50821093050978</v>
       </c>
       <c r="J20" t="n">
-        <v>2453.299623878735</v>
+        <v>22.64911874439506</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_otip</t>
+          <t>hsr_distance_full_tip</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>285.5495749623238</v>
+        <v>2201.811615276843</v>
       </c>
       <c r="C21" t="n">
-        <v>290.2838287275494</v>
+        <v>2164.638620428413</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.63</v>
+        <v>1.72</v>
       </c>
       <c r="E21" t="n">
-        <v>14.87682812721861</v>
+        <v>162.1337972889364</v>
       </c>
       <c r="F21" t="n">
-        <v>41.51589737945454</v>
+        <v>165.4497535123431</v>
       </c>
       <c r="G21" t="n">
-        <v>262.0781747488301</v>
+        <v>2028.882743576388</v>
       </c>
       <c r="H21" t="n">
-        <v>236.0281904784996</v>
+        <v>1895.187098614456</v>
       </c>
       <c r="I21" t="n">
-        <v>301.9106687576135</v>
+        <v>2404.758738272372</v>
       </c>
       <c r="J21" t="n">
-        <v>413.3904060305224</v>
+        <v>2453.299623878735</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_otip</t>
+          <t>hi_count_full_otip</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>248.3871758058353</v>
+        <v>285.5495749623238</v>
       </c>
       <c r="C22" t="n">
-        <v>252.1082459683153</v>
+        <v>290.2838287275494</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.48</v>
+        <v>-1.63</v>
       </c>
       <c r="E22" t="n">
-        <v>13.07014610713024</v>
+        <v>14.87682812721861</v>
       </c>
       <c r="F22" t="n">
-        <v>34.43216839108684</v>
+        <v>41.51589737945454</v>
       </c>
       <c r="G22" t="n">
-        <v>227.7493592698368</v>
+        <v>262.0781747488301</v>
       </c>
       <c r="H22" t="n">
-        <v>206.092053379901</v>
+        <v>236.0281904784996</v>
       </c>
       <c r="I22" t="n">
-        <v>262.4617143176719</v>
+        <v>301.9106687576135</v>
       </c>
       <c r="J22" t="n">
-        <v>352.9747693873791</v>
+        <v>413.3904060305224</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_otip</t>
+          <t>highdecel_count_full_all</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>51.72276474536343</v>
+        <v>160.306822253797</v>
       </c>
       <c r="C23" t="n">
-        <v>52.32048826977314</v>
+        <v>157.7994530175797</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.14</v>
+        <v>1.59</v>
       </c>
       <c r="E23" t="n">
-        <v>4.036793686977469</v>
+        <v>5.296940291516196</v>
       </c>
       <c r="F23" t="n">
-        <v>5.826276827397506</v>
+        <v>9.167131531550979</v>
       </c>
       <c r="G23" t="n">
-        <v>47.46093844235369</v>
+        <v>153.4798917708448</v>
       </c>
       <c r="H23" t="n">
-        <v>44.40391729390301</v>
+        <v>147.8640466580171</v>
       </c>
       <c r="I23" t="n">
-        <v>56.52843416597797</v>
+        <v>167.6313998707799</v>
       </c>
       <c r="J23" t="n">
-        <v>67.31286071329997</v>
+        <v>181.455571001534</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>hsr_count_full_otip</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3413.389484521112</v>
+        <v>248.3871758058353</v>
       </c>
       <c r="C24" t="n">
-        <v>3435.329989578204</v>
+        <v>252.1082459683153</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.64</v>
+        <v>-1.48</v>
       </c>
       <c r="E24" t="n">
-        <v>173.7964389024005</v>
+        <v>13.07014610713024</v>
       </c>
       <c r="F24" t="n">
-        <v>556.3293553007516</v>
+        <v>34.43216839108684</v>
       </c>
       <c r="G24" t="n">
-        <v>3166.75182288359</v>
+        <v>227.7493592698368</v>
       </c>
       <c r="H24" t="n">
-        <v>2803.614667939856</v>
+        <v>206.092053379901</v>
       </c>
       <c r="I24" t="n">
-        <v>3656.218461286545</v>
+        <v>262.4617143176719</v>
       </c>
       <c r="J24" t="n">
-        <v>5093.182468857197</v>
+        <v>352.9747693873791</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_otip</t>
+          <t>sprint_count_full_all</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1921.369056708694</v>
+        <v>94.68881990573875</v>
       </c>
       <c r="C25" t="n">
-        <v>1933.397142085327</v>
+        <v>93.38509242795837</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.62</v>
+        <v>1.4</v>
       </c>
       <c r="E25" t="n">
-        <v>117.5788256070493</v>
+        <v>3.419244555637261</v>
       </c>
       <c r="F25" t="n">
-        <v>75.84925843295528</v>
+        <v>8.479842902221169</v>
       </c>
       <c r="G25" t="n">
-        <v>1741.475776568035</v>
+        <v>90.81476829194003</v>
       </c>
       <c r="H25" t="n">
-        <v>1812.256080771003</v>
+        <v>79.0080803012783</v>
       </c>
       <c r="I25" t="n">
-        <v>2055.524019744857</v>
+        <v>99.11577513353407</v>
       </c>
       <c r="J25" t="n">
-        <v>2147.247733113258</v>
+        <v>114.9469278432924</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_tip</t>
+          <t>sprint_distance_full_all</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1807.588149029572</v>
+        <v>1617.09072264251</v>
       </c>
       <c r="C26" t="n">
-        <v>1812.821493985028</v>
+        <v>1598.663014577764</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.29</v>
+        <v>1.15</v>
       </c>
       <c r="E26" t="n">
-        <v>110.6389375267606</v>
+        <v>63.40962894334402</v>
       </c>
       <c r="F26" t="n">
-        <v>41.61203321987711</v>
+        <v>121.6722078002702</v>
       </c>
       <c r="G26" t="n">
-        <v>1690.440770990897</v>
+        <v>1536.076803401259</v>
       </c>
       <c r="H26" t="n">
-        <v>1752.370680344522</v>
+        <v>1365.114265309972</v>
       </c>
       <c r="I26" t="n">
-        <v>1971.081921566278</v>
+        <v>1679.624661872726</v>
       </c>
       <c r="J26" t="n">
-        <v>1886.173303597148</v>
+        <v>1861.235116552186</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
+          <t>highdecel_count_full_otip</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>51.72276474536343</v>
+      </c>
+      <c r="C27" t="n">
+        <v>52.32048826977314</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.036793686977469</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.826276827397506</v>
+      </c>
+      <c r="G27" t="n">
+        <v>47.46093844235369</v>
+      </c>
+      <c r="H27" t="n">
+        <v>44.40391729390301</v>
+      </c>
+      <c r="I27" t="n">
+        <v>56.52843416597797</v>
+      </c>
+      <c r="J27" t="n">
+        <v>67.31286071329997</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>hi_distance_full_all</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6982.550369179889</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6910.531284109713</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E28" t="n">
+        <v>308.265181489378</v>
+      </c>
+      <c r="F28" t="n">
+        <v>593.8779462825538</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6590.314637982676</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5906.249874689245</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7346.355586546497</v>
+      </c>
+      <c r="J28" t="n">
+        <v>8548.997061138083</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>hsr_distance_full_all</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5365.459646537379</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5311.868269531948</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E29" t="n">
+        <v>259.6924564886341</v>
+      </c>
+      <c r="F29" t="n">
+        <v>484.0261122607125</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5014.373907385119</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4541.135609379274</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5666.752883553461</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6687.761944585897</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>meddecel_count_full_all</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>877.8905998513952</v>
+      </c>
+      <c r="C30" t="n">
+        <v>885.3020344406092</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="E30" t="n">
+        <v>24.73330602495416</v>
+      </c>
+      <c r="F30" t="n">
+        <v>22.21686179562156</v>
+      </c>
+      <c r="G30" t="n">
+        <v>852.2641453443797</v>
+      </c>
+      <c r="H30" t="n">
+        <v>838.4477022217351</v>
+      </c>
+      <c r="I30" t="n">
+        <v>906.7273468414577</v>
+      </c>
+      <c r="J30" t="n">
+        <v>919.0891108513039</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>hi_count_full_all</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>611.008665694976</v>
+      </c>
+      <c r="C31" t="n">
+        <v>606.0813354666413</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E31" t="n">
+        <v>25.55061383037476</v>
+      </c>
+      <c r="F31" t="n">
+        <v>46.78359016677163</v>
+      </c>
+      <c r="G31" t="n">
+        <v>579.2482273815925</v>
+      </c>
+      <c r="H31" t="n">
+        <v>534.7207946858389</v>
+      </c>
+      <c r="I31" t="n">
+        <v>643.1295316017238</v>
+      </c>
+      <c r="J31" t="n">
+        <v>737.4213733627826</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>hsr_count_full_all</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>516.3198457892372</v>
+      </c>
+      <c r="C32" t="n">
+        <v>512.6962430386832</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E32" t="n">
+        <v>22.14531411288011</v>
+      </c>
+      <c r="F32" t="n">
+        <v>38.48837565532386</v>
+      </c>
+      <c r="G32" t="n">
+        <v>488.4334590896526</v>
+      </c>
+      <c r="H32" t="n">
+        <v>455.7127143845605</v>
+      </c>
+      <c r="I32" t="n">
+        <v>544.0137564681897</v>
+      </c>
+      <c r="J32" t="n">
+        <v>622.47444551949</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>hi_distance_full_otip</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3413.389484521112</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3435.329989578204</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="E33" t="n">
+        <v>173.7964389024005</v>
+      </c>
+      <c r="F33" t="n">
+        <v>556.3293553007516</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3166.75182288359</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2803.614667939856</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3656.218461286545</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5093.182468857197</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>total_metersperminute_full_otip</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1921.369056708694</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1933.397142085327</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="E34" t="n">
+        <v>117.5788256070493</v>
+      </c>
+      <c r="F34" t="n">
+        <v>75.84925843295528</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1741.475776568035</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1812.256080771003</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2055.524019744857</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2147.247733113258</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>total_distance_full_all</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>101948.4128754334</v>
+      </c>
+      <c r="C35" t="n">
+        <v>102387.4598188055</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="E35" t="n">
+        <v>797.9847223814787</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2164.4746466789</v>
+      </c>
+      <c r="G35" t="n">
+        <v>101148.845573716</v>
+      </c>
+      <c r="H35" t="n">
+        <v>98900.32164948646</v>
+      </c>
+      <c r="I35" t="n">
+        <v>103077.4021386138</v>
+      </c>
+      <c r="J35" t="n">
+        <v>107480.1303104399</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>medaccel_count_full_all</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1083.150966276052</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1080.059280540208</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E36" t="n">
+        <v>30.76014088911031</v>
+      </c>
+      <c r="F36" t="n">
+        <v>30.07369104258099</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1043.358492580089</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1018.578143580321</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1120.653032847469</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1139.030122782213</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>total_metersperminute_full_tip</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1807.588149029572</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1812.821493985028</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="E37" t="n">
+        <v>110.6389375267606</v>
+      </c>
+      <c r="F37" t="n">
+        <v>41.61203321987711</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1690.440770990897</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1752.370680344522</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1971.081921566278</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1886.173303597148</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>total_metersperminute_full_all</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1520.429141239383</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1522.9558650912</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="E38" t="n">
+        <v>43.89195784568512</v>
+      </c>
+      <c r="F38" t="n">
+        <v>44.65567954606551</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1460.250717858118</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1429.806720470185</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1566.730243151901</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1602.249834091883</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>psv99</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>372.0077376502733</v>
+      </c>
+      <c r="C39" t="n">
+        <v>371.4371185241941</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E39" t="n">
+        <v>8.956271199440106</v>
+      </c>
+      <c r="F39" t="n">
+        <v>7.738974804704545</v>
+      </c>
+      <c r="G39" t="n">
+        <v>362.0987528956378</v>
+      </c>
+      <c r="H39" t="n">
+        <v>360.1145346300518</v>
+      </c>
+      <c r="I39" t="n">
+        <v>382.2895863511616</v>
+      </c>
+      <c r="J39" t="n">
+        <v>388.213201223119</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>running_distance_full_all</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>14140.68185935396</v>
+      </c>
+      <c r="C40" t="n">
+        <v>14125.39137416124</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E40" t="n">
+        <v>394.4466057191528</v>
+      </c>
+      <c r="F40" t="n">
+        <v>935.2243447917148</v>
+      </c>
+      <c r="G40" t="n">
+        <v>13582.81249628817</v>
+      </c>
+      <c r="H40" t="n">
+        <v>12536.72993700095</v>
+      </c>
+      <c r="I40" t="n">
+        <v>14607.25607469101</v>
+      </c>
+      <c r="J40" t="n">
+        <v>16585.50248271672</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
           <t>hsr_distance_full_otip</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B41" t="n">
         <v>2705.675705381019</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C41" t="n">
         <v>2708.215899106986</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D41" t="n">
         <v>-0.09</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E41" t="n">
         <v>137.4437812126859</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F41" t="n">
         <v>432.8025992886028</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G41" t="n">
         <v>2512.264471963871</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H41" t="n">
         <v>2240.149115371444</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I41" t="n">
         <v>2898.498343348916</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J41" t="n">
         <v>3992.576644895034</v>
       </c>
     </row>

--- a/Métriques discriminantes/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_physical.xlsx
+++ b/Métriques discriminantes/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_physical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,1361 +483,1327 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_tip</t>
+          <t>highaccel_count_per30otip</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.32643280579968</v>
+        <v>35.54053201110101</v>
       </c>
       <c r="C2" t="n">
-        <v>37.81427744046337</v>
+        <v>32.53516214354748</v>
       </c>
       <c r="D2" t="n">
-        <v>6.64</v>
+        <v>9.24</v>
       </c>
       <c r="E2" t="n">
-        <v>1.566944369617723</v>
+        <v>3.364949861435881</v>
       </c>
       <c r="F2" t="n">
-        <v>3.277827349723662</v>
+        <v>2.443607372342183</v>
       </c>
       <c r="G2" t="n">
-        <v>37.69567533837247</v>
+        <v>32.36892959554211</v>
       </c>
       <c r="H2" t="n">
-        <v>33.918905803945</v>
+        <v>28.77514764087189</v>
       </c>
       <c r="I2" t="n">
-        <v>41.65753511656836</v>
+        <v>40.93722746279575</v>
       </c>
       <c r="J2" t="n">
-        <v>44.94408914964191</v>
+        <v>37.82966405137105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_otip</t>
+          <t>hsr_distance_per30otip</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35557.73874765011</v>
+        <v>4609.603463227181</v>
       </c>
       <c r="C3" t="n">
-        <v>37875.22498564087</v>
+        <v>4370.412090800871</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.12</v>
+        <v>5.47</v>
       </c>
       <c r="E3" t="n">
-        <v>1232.388864977056</v>
+        <v>555.0135270612897</v>
       </c>
       <c r="F3" t="n">
-        <v>2824.068090997378</v>
+        <v>650.0291386869616</v>
       </c>
       <c r="G3" t="n">
-        <v>34037.08639854103</v>
+        <v>3917.099310137479</v>
       </c>
       <c r="H3" t="n">
-        <v>31960.22600064877</v>
+        <v>3632.33536636035</v>
       </c>
       <c r="I3" t="n">
-        <v>37278.73176481328</v>
+        <v>5377.458790605414</v>
       </c>
       <c r="J3" t="n">
-        <v>41842.81071672353</v>
+        <v>6233.828963344316</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>sprint_count_per30otip</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>781.8154777733826</v>
+        <v>63.22428097371461</v>
       </c>
       <c r="C4" t="n">
-        <v>742.2055356201979</v>
+        <v>59.9632252465669</v>
       </c>
       <c r="D4" t="n">
-        <v>5.34</v>
+        <v>5.44</v>
       </c>
       <c r="E4" t="n">
-        <v>46.33414738302128</v>
+        <v>9.238540198312082</v>
       </c>
       <c r="F4" t="n">
-        <v>71.70087241178432</v>
+        <v>10.41270373309524</v>
       </c>
       <c r="G4" t="n">
-        <v>713.0034047802379</v>
+        <v>51.73260886867263</v>
       </c>
       <c r="H4" t="n">
-        <v>621.2318161859457</v>
+        <v>47.89076332656309</v>
       </c>
       <c r="I4" t="n">
-        <v>840.5826305662382</v>
+        <v>75.96297230748918</v>
       </c>
       <c r="J4" t="n">
-        <v>856.2483521944293</v>
+        <v>92.5081894021199</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_tip</t>
+          <t>hi_distance_per30otip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.5808006642409</v>
+        <v>5847.534005530913</v>
       </c>
       <c r="C5" t="n">
-        <v>20.58435855497999</v>
+        <v>5555.409804199409</v>
       </c>
       <c r="D5" t="n">
-        <v>4.84</v>
+        <v>5.26</v>
       </c>
       <c r="E5" t="n">
-        <v>2.075893813909885</v>
+        <v>740.4876310537229</v>
       </c>
       <c r="F5" t="n">
-        <v>2.484906787937065</v>
+        <v>840.1250082115089</v>
       </c>
       <c r="G5" t="n">
-        <v>18.66445279530906</v>
+        <v>4918.158184459539</v>
       </c>
       <c r="H5" t="n">
-        <v>17.21672867397698</v>
+        <v>4565.133483531136</v>
       </c>
       <c r="I5" t="n">
-        <v>24.12555135755219</v>
+        <v>6847.83915737625</v>
       </c>
       <c r="J5" t="n">
-        <v>26.38165588884013</v>
+        <v>7999.348330842308</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
+          <t>highaccel_count_per_Match</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>295.7264310572242</v>
+        <v>66.81213264300074</v>
       </c>
       <c r="C6" t="n">
-        <v>310.6382529620406</v>
+        <v>63.82263756260543</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.8</v>
+        <v>4.68</v>
       </c>
       <c r="E6" t="n">
-        <v>21.48979728892436</v>
+        <v>6.33076573702692</v>
       </c>
       <c r="F6" t="n">
-        <v>26.68113240161935</v>
+        <v>3.887437053059958</v>
       </c>
       <c r="G6" t="n">
-        <v>271.3609392051098</v>
+        <v>60.44618306696288</v>
       </c>
       <c r="H6" t="n">
-        <v>250.370317805314</v>
+        <v>56.24170559614623</v>
       </c>
       <c r="I6" t="n">
-        <v>328.8671087604378</v>
+        <v>76.61872944817318</v>
       </c>
       <c r="J6" t="n">
-        <v>352.7150321250502</v>
+        <v>70.1479238976912</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_all</t>
+          <t>hi_count_per30otip</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.81213264300074</v>
+        <v>482.0964438710967</v>
       </c>
       <c r="C7" t="n">
-        <v>63.82263756260543</v>
+        <v>461.1986529634568</v>
       </c>
       <c r="D7" t="n">
-        <v>4.68</v>
+        <v>4.53</v>
       </c>
       <c r="E7" t="n">
-        <v>6.33076573702692</v>
+        <v>56.44892718088944</v>
       </c>
       <c r="F7" t="n">
-        <v>3.887437053059958</v>
+        <v>60.17115634248768</v>
       </c>
       <c r="G7" t="n">
-        <v>60.44618306696288</v>
+        <v>413.7887431114607</v>
       </c>
       <c r="H7" t="n">
-        <v>56.24170559614623</v>
+        <v>397.4001201651793</v>
       </c>
       <c r="I7" t="n">
-        <v>76.61872944817318</v>
+        <v>561.0684718661021</v>
       </c>
       <c r="J7" t="n">
-        <v>70.1479238976912</v>
+        <v>644.4814924668887</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_tip</t>
+          <t>highdecel_count_per30otip</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>260.9359912541216</v>
+        <v>87.11016268987215</v>
       </c>
       <c r="C8" t="n">
-        <v>249.8672855776814</v>
+        <v>83.35773336891417</v>
       </c>
       <c r="D8" t="n">
-        <v>4.43</v>
+        <v>4.5</v>
       </c>
       <c r="E8" t="n">
-        <v>16.95666447451088</v>
+        <v>7.341650901855309</v>
       </c>
       <c r="F8" t="n">
-        <v>18.5851248816636</v>
+        <v>6.970571400433697</v>
       </c>
       <c r="G8" t="n">
-        <v>233.8347715843163</v>
+        <v>80.18628688272555</v>
       </c>
       <c r="H8" t="n">
-        <v>223.6140481905484</v>
+        <v>76.41750006721263</v>
       </c>
       <c r="I8" t="n">
-        <v>278.0250160352341</v>
+        <v>99.55939130536298</v>
       </c>
       <c r="J8" t="n">
-        <v>289.7676027772649</v>
+        <v>105.264748611868</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>sprint_distance_per30otip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35483.45315552852</v>
+        <v>1237.930114651542</v>
       </c>
       <c r="C9" t="n">
-        <v>34213.03794152191</v>
+        <v>1184.996756732652</v>
       </c>
       <c r="D9" t="n">
-        <v>3.71</v>
+        <v>4.47</v>
       </c>
       <c r="E9" t="n">
-        <v>1779.777983213065</v>
+        <v>187.4129527964166</v>
       </c>
       <c r="F9" t="n">
-        <v>2197.813938713118</v>
+        <v>197.0827621844677</v>
       </c>
       <c r="G9" t="n">
-        <v>32647.87026909309</v>
+        <v>1001.060319475671</v>
       </c>
       <c r="H9" t="n">
-        <v>30965.54675942479</v>
+        <v>932.797125923501</v>
       </c>
       <c r="I9" t="n">
-        <v>36984.78942497371</v>
+        <v>1470.387312434579</v>
       </c>
       <c r="J9" t="n">
-        <v>38666.44617415352</v>
+        <v>1765.516880366264</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_tip</t>
+          <t>hsr_count_per30otip</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39.34931314487949</v>
+        <v>418.8705657759254</v>
       </c>
       <c r="C10" t="n">
-        <v>37.94439031012171</v>
+        <v>401.2340348763826</v>
       </c>
       <c r="D10" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="E10" t="n">
-        <v>2.27103105593123</v>
+        <v>47.21487227008597</v>
       </c>
       <c r="F10" t="n">
-        <v>3.672266351188446</v>
+        <v>49.88588381593122</v>
       </c>
       <c r="G10" t="n">
-        <v>36.12928511257346</v>
+        <v>362.0535048139315</v>
       </c>
       <c r="H10" t="n">
-        <v>32.77406582441426</v>
+        <v>349.5120651250113</v>
       </c>
       <c r="I10" t="n">
-        <v>42.10090083547875</v>
+        <v>485.0989502419088</v>
       </c>
       <c r="J10" t="n">
-        <v>44.43655945661627</v>
+        <v>551.9703960498231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>highdecel_count_per30tip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6853.733652790443</v>
+        <v>65.84404059977064</v>
       </c>
       <c r="C11" t="n">
-        <v>7090.395590995666</v>
+        <v>63.71621761133181</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.34</v>
+        <v>3.34</v>
       </c>
       <c r="E11" t="n">
-        <v>261.7312196234597</v>
+        <v>2.765119213065053</v>
       </c>
       <c r="F11" t="n">
-        <v>824.1695915250681</v>
+        <v>3.249325686481027</v>
       </c>
       <c r="G11" t="n">
-        <v>6461.814865793849</v>
+        <v>62.20356578738005</v>
       </c>
       <c r="H11" t="n">
-        <v>5857.257841365194</v>
+        <v>58.67473878883042</v>
       </c>
       <c r="I11" t="n">
-        <v>7116.883714345494</v>
+        <v>68.97679882362684</v>
       </c>
       <c r="J11" t="n">
-        <v>9202.918048062398</v>
+        <v>68.60638179024971</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>medaccel_count_per30otip</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>367.4935104648872</v>
+        <v>664.5854693486704</v>
       </c>
       <c r="C12" t="n">
-        <v>355.7742733909068</v>
+        <v>643.911466616855</v>
       </c>
       <c r="D12" t="n">
-        <v>3.29</v>
+        <v>3.21</v>
       </c>
       <c r="E12" t="n">
-        <v>26.73875633393764</v>
+        <v>37.47138742943028</v>
       </c>
       <c r="F12" t="n">
-        <v>23.04717293601096</v>
+        <v>27.02395557638521</v>
       </c>
       <c r="G12" t="n">
-        <v>325.3385808165229</v>
+        <v>619.0514115277839</v>
       </c>
       <c r="H12" t="n">
-        <v>323.6035574796436</v>
+        <v>609.886433421629</v>
       </c>
       <c r="I12" t="n">
-        <v>393.013095416546</v>
+        <v>713.0540547449953</v>
       </c>
       <c r="J12" t="n">
-        <v>403.1707345705044</v>
+        <v>709.7213410069689</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_tip</t>
+          <t>sprint_distance_per30tip</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5652.00052074328</v>
+        <v>1385.144111842592</v>
       </c>
       <c r="C13" t="n">
-        <v>5477.507365740687</v>
+        <v>1342.020831878471</v>
       </c>
       <c r="D13" t="n">
-        <v>3.19</v>
+        <v>3.21</v>
       </c>
       <c r="E13" t="n">
-        <v>398.953218813526</v>
+        <v>104.3183841608182</v>
       </c>
       <c r="F13" t="n">
-        <v>388.379698055164</v>
+        <v>88.41195434319167</v>
       </c>
       <c r="G13" t="n">
-        <v>5243.529566463166</v>
+        <v>1295.277599453275</v>
       </c>
       <c r="H13" t="n">
-        <v>4769.842932808218</v>
+        <v>1223.825851906536</v>
       </c>
       <c r="I13" t="n">
-        <v>6237.721800697452</v>
+        <v>1521.785939023249</v>
       </c>
       <c r="J13" t="n">
-        <v>6193.01590876589</v>
+        <v>1480.447300124172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>highaccel_count_per30tip</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>413.3315748917781</v>
+        <v>35.25460487650911</v>
       </c>
       <c r="C14" t="n">
-        <v>425.1069623861311</v>
+        <v>34.2957982057348</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.77</v>
+        <v>2.8</v>
       </c>
       <c r="E14" t="n">
-        <v>19.46897222949351</v>
+        <v>2.631165726556894</v>
       </c>
       <c r="F14" t="n">
-        <v>30.51045719714014</v>
+        <v>2.836733753739072</v>
       </c>
       <c r="G14" t="n">
-        <v>396.2543559713862</v>
+        <v>32.09010226228673</v>
       </c>
       <c r="H14" t="n">
-        <v>360.4221816733501</v>
+        <v>29.60597061985614</v>
       </c>
       <c r="I14" t="n">
-        <v>444.7572931794446</v>
+        <v>37.68394170845484</v>
       </c>
       <c r="J14" t="n">
-        <v>467.8653562805059</v>
+        <v>38.92995911772954</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_otip</t>
+          <t>running_distance_per30otip</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>707.7137791400927</v>
+        <v>11433.85820271408</v>
       </c>
       <c r="C15" t="n">
-        <v>727.1140904712177</v>
+        <v>11205.07353749051</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.67</v>
+        <v>2.04</v>
       </c>
       <c r="E15" t="n">
-        <v>37.16671986120333</v>
+        <v>956.1843351499855</v>
       </c>
       <c r="F15" t="n">
-        <v>125.5787783588835</v>
+        <v>1108.612968003192</v>
       </c>
       <c r="G15" t="n">
-        <v>654.4873509197188</v>
+        <v>10003.06817579025</v>
       </c>
       <c r="H15" t="n">
-        <v>557.7131031458366</v>
+        <v>9772.504169982083</v>
       </c>
       <c r="I15" t="n">
-        <v>757.7201179376283</v>
+        <v>12664.768833799</v>
       </c>
       <c r="J15" t="n">
-        <v>1100.605823962163</v>
+        <v>14307.06791398785</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>sprint_count_per30tip</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.16239915648865</v>
+        <v>66.60103477939455</v>
       </c>
       <c r="C16" t="n">
-        <v>38.1755827592341</v>
+        <v>65.28575523971874</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.65</v>
+        <v>2.01</v>
       </c>
       <c r="E16" t="n">
-        <v>1.85777303925926</v>
+        <v>5.860912937645338</v>
       </c>
       <c r="F16" t="n">
-        <v>7.204822822810137</v>
+        <v>3.951525806690569</v>
       </c>
       <c r="G16" t="n">
-        <v>34.32881547899326</v>
+        <v>61.00829198487074</v>
       </c>
       <c r="H16" t="n">
-        <v>29.90705738630099</v>
+        <v>58.59633004902819</v>
       </c>
       <c r="I16" t="n">
-        <v>39.44895443994156</v>
+        <v>73.09879102601614</v>
       </c>
       <c r="J16" t="n">
-        <v>60.41563664314325</v>
+        <v>72.06555706208363</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>highdecel_count_per_Match</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2983.627093050226</v>
+        <v>160.306822253797</v>
       </c>
       <c r="C17" t="n">
-        <v>2906.84415604861</v>
+        <v>157.7994530175797</v>
       </c>
       <c r="D17" t="n">
-        <v>2.64</v>
+        <v>1.59</v>
       </c>
       <c r="E17" t="n">
-        <v>192.6248345487242</v>
+        <v>5.296940291516196</v>
       </c>
       <c r="F17" t="n">
-        <v>228.6704536234355</v>
+        <v>9.167131531550979</v>
       </c>
       <c r="G17" t="n">
-        <v>2741.886148356625</v>
+        <v>153.4798917708448</v>
       </c>
       <c r="H17" t="n">
-        <v>2574.649203297054</v>
+        <v>147.8640466580171</v>
       </c>
       <c r="I17" t="n">
-        <v>3187.861066187726</v>
+        <v>167.6313998707799</v>
       </c>
       <c r="J17" t="n">
-        <v>3292.476696441771</v>
+        <v>181.455571001534</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>sprint_count_per_Match</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>248.7348905139809</v>
+        <v>94.68881990573875</v>
       </c>
       <c r="C18" t="n">
-        <v>242.7086526873697</v>
+        <v>93.38509242795837</v>
       </c>
       <c r="D18" t="n">
-        <v>2.48</v>
+        <v>1.4</v>
       </c>
       <c r="E18" t="n">
-        <v>17.97719918149894</v>
+        <v>3.419244555637261</v>
       </c>
       <c r="F18" t="n">
-        <v>18.18235700935413</v>
+        <v>8.479842902221169</v>
       </c>
       <c r="G18" t="n">
-        <v>225.1166050882141</v>
+        <v>90.81476829194003</v>
       </c>
       <c r="H18" t="n">
-        <v>216.4225409928567</v>
+        <v>79.0080803012783</v>
       </c>
       <c r="I18" t="n">
-        <v>267.7479426716968</v>
+        <v>99.11577513353407</v>
       </c>
       <c r="J18" t="n">
-        <v>276.4090780947945</v>
+        <v>114.9469278432924</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>sprint_distance_per_Match</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>209.3855773691015</v>
+        <v>1617.09072264251</v>
       </c>
       <c r="C19" t="n">
-        <v>204.764262377248</v>
+        <v>1598.663014577764</v>
       </c>
       <c r="D19" t="n">
-        <v>2.26</v>
+        <v>1.15</v>
       </c>
       <c r="E19" t="n">
-        <v>15.76290027667297</v>
+        <v>63.40962894334402</v>
       </c>
       <c r="F19" t="n">
-        <v>14.67104467656554</v>
+        <v>121.6722078002702</v>
       </c>
       <c r="G19" t="n">
-        <v>188.9873199756406</v>
+        <v>1536.076803401259</v>
       </c>
       <c r="H19" t="n">
-        <v>183.1214673779982</v>
+        <v>1365.114265309972</v>
       </c>
       <c r="I19" t="n">
-        <v>225.6470418362181</v>
+        <v>1679.624661872726</v>
       </c>
       <c r="J19" t="n">
-        <v>231.9725186381782</v>
+        <v>1861.235116552186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>meddecel_count_per30otip</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>20.9885927830018</v>
+        <v>467.9496485354565</v>
       </c>
       <c r="C20" t="n">
-        <v>20.55151676233293</v>
+        <v>463.1248577131294</v>
       </c>
       <c r="D20" t="n">
-        <v>2.13</v>
+        <v>1.04</v>
       </c>
       <c r="E20" t="n">
-        <v>1.644643387792927</v>
+        <v>18.21843397455039</v>
       </c>
       <c r="F20" t="n">
-        <v>1.072954953754047</v>
+        <v>16.31641284959798</v>
       </c>
       <c r="G20" t="n">
-        <v>19.01366400801037</v>
+        <v>449.5599613340905</v>
       </c>
       <c r="H20" t="n">
-        <v>19.16336104346119</v>
+        <v>440.8590564639621</v>
       </c>
       <c r="I20" t="n">
-        <v>23.50821093050978</v>
+        <v>497.6075711316399</v>
       </c>
       <c r="J20" t="n">
-        <v>22.64911874439506</v>
+        <v>495.7734142246817</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>hi_distance_per_Match</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2201.811615276843</v>
+        <v>6982.550369179889</v>
       </c>
       <c r="C21" t="n">
-        <v>2164.638620428413</v>
+        <v>6910.531284109713</v>
       </c>
       <c r="D21" t="n">
-        <v>1.72</v>
+        <v>1.04</v>
       </c>
       <c r="E21" t="n">
-        <v>162.1337972889364</v>
+        <v>308.265181489378</v>
       </c>
       <c r="F21" t="n">
-        <v>165.4497535123431</v>
+        <v>593.8779462825538</v>
       </c>
       <c r="G21" t="n">
-        <v>2028.882743576388</v>
+        <v>6590.314637982676</v>
       </c>
       <c r="H21" t="n">
-        <v>1895.187098614456</v>
+        <v>5906.249874689245</v>
       </c>
       <c r="I21" t="n">
-        <v>2404.758738272372</v>
+        <v>7346.355586546497</v>
       </c>
       <c r="J21" t="n">
-        <v>2453.299623878735</v>
+        <v>8548.997061138083</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_otip</t>
+          <t>hsr_distance_per_Match</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>285.5495749623238</v>
+        <v>5365.459646537379</v>
       </c>
       <c r="C22" t="n">
-        <v>290.2838287275494</v>
+        <v>5311.868269531948</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.63</v>
+        <v>1.01</v>
       </c>
       <c r="E22" t="n">
-        <v>14.87682812721861</v>
+        <v>259.6924564886341</v>
       </c>
       <c r="F22" t="n">
-        <v>41.51589737945454</v>
+        <v>484.0261122607125</v>
       </c>
       <c r="G22" t="n">
-        <v>262.0781747488301</v>
+        <v>5014.373907385119</v>
       </c>
       <c r="H22" t="n">
-        <v>236.0281904784996</v>
+        <v>4541.135609379274</v>
       </c>
       <c r="I22" t="n">
-        <v>301.9106687576135</v>
+        <v>5666.752883553461</v>
       </c>
       <c r="J22" t="n">
-        <v>413.3904060305224</v>
+        <v>6687.761944585897</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_all</t>
+          <t>meddecel_count_per_Match</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>160.306822253797</v>
+        <v>877.8905998513952</v>
       </c>
       <c r="C23" t="n">
-        <v>157.7994530175797</v>
+        <v>885.3020344406092</v>
       </c>
       <c r="D23" t="n">
-        <v>1.59</v>
+        <v>-0.84</v>
       </c>
       <c r="E23" t="n">
-        <v>5.296940291516196</v>
+        <v>24.73330602495416</v>
       </c>
       <c r="F23" t="n">
-        <v>9.167131531550979</v>
+        <v>22.21686179562156</v>
       </c>
       <c r="G23" t="n">
-        <v>153.4798917708448</v>
+        <v>852.2641453443797</v>
       </c>
       <c r="H23" t="n">
-        <v>147.8640466580171</v>
+        <v>838.4477022217351</v>
       </c>
       <c r="I23" t="n">
-        <v>167.6313998707799</v>
+        <v>906.7273468414577</v>
       </c>
       <c r="J23" t="n">
-        <v>181.455571001534</v>
+        <v>919.0891108513039</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_otip</t>
+          <t>hi_count_per_Match</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>248.3871758058353</v>
+        <v>611.008665694976</v>
       </c>
       <c r="C24" t="n">
-        <v>252.1082459683153</v>
+        <v>606.0813354666413</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.48</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>13.07014610713024</v>
+        <v>25.55061383037476</v>
       </c>
       <c r="F24" t="n">
-        <v>34.43216839108684</v>
+        <v>46.78359016677163</v>
       </c>
       <c r="G24" t="n">
-        <v>227.7493592698368</v>
+        <v>579.2482273815925</v>
       </c>
       <c r="H24" t="n">
-        <v>206.092053379901</v>
+        <v>534.7207946858389</v>
       </c>
       <c r="I24" t="n">
-        <v>262.4617143176719</v>
+        <v>643.1295316017238</v>
       </c>
       <c r="J24" t="n">
-        <v>352.9747693873791</v>
+        <v>737.4213733627826</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_all</t>
+          <t>hi_distance_per30tip</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.68881990573875</v>
+        <v>5182.642962154316</v>
       </c>
       <c r="C25" t="n">
-        <v>93.38509242795837</v>
+        <v>5143.527686100112</v>
       </c>
       <c r="D25" t="n">
-        <v>1.4</v>
+        <v>0.76</v>
       </c>
       <c r="E25" t="n">
-        <v>3.419244555637261</v>
+        <v>443.6366338801473</v>
       </c>
       <c r="F25" t="n">
-        <v>8.479842902221169</v>
+        <v>248.7394427982533</v>
       </c>
       <c r="G25" t="n">
-        <v>90.81476829194003</v>
+        <v>4740.885946693613</v>
       </c>
       <c r="H25" t="n">
-        <v>79.0080803012783</v>
+        <v>4694.668402067732</v>
       </c>
       <c r="I25" t="n">
-        <v>99.11577513353407</v>
+        <v>5793.533069815428</v>
       </c>
       <c r="J25" t="n">
-        <v>114.9469278432924</v>
+        <v>5523.57383783259</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_all</t>
+          <t>hsr_count_per_Match</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1617.09072264251</v>
+        <v>516.3198457892372</v>
       </c>
       <c r="C26" t="n">
-        <v>1598.663014577764</v>
+        <v>512.6962430386832</v>
       </c>
       <c r="D26" t="n">
-        <v>1.15</v>
+        <v>0.71</v>
       </c>
       <c r="E26" t="n">
-        <v>63.40962894334402</v>
+        <v>22.14531411288011</v>
       </c>
       <c r="F26" t="n">
-        <v>121.6722078002702</v>
+        <v>38.48837565532386</v>
       </c>
       <c r="G26" t="n">
-        <v>1536.076803401259</v>
+        <v>488.4334590896526</v>
       </c>
       <c r="H26" t="n">
-        <v>1365.114265309972</v>
+        <v>455.7127143845605</v>
       </c>
       <c r="I26" t="n">
-        <v>1679.624661872726</v>
+        <v>544.0137564681897</v>
       </c>
       <c r="J26" t="n">
-        <v>1861.235116552186</v>
+        <v>622.47444551949</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_otip</t>
+          <t>meddecel_count_per30tip</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51.72276474536343</v>
+        <v>395.7509964370398</v>
       </c>
       <c r="C27" t="n">
-        <v>52.32048826977314</v>
+        <v>393.3060970111102</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.14</v>
+        <v>0.62</v>
       </c>
       <c r="E27" t="n">
-        <v>4.036793686977469</v>
+        <v>24.75267857407913</v>
       </c>
       <c r="F27" t="n">
-        <v>5.826276827397506</v>
+        <v>10.53278582776684</v>
       </c>
       <c r="G27" t="n">
-        <v>47.46093844235369</v>
+        <v>371.2745817785596</v>
       </c>
       <c r="H27" t="n">
-        <v>44.40391729390301</v>
+        <v>381.6327613908686</v>
       </c>
       <c r="I27" t="n">
-        <v>56.52843416597797</v>
+        <v>429.2054512193725</v>
       </c>
       <c r="J27" t="n">
-        <v>67.31286071329997</v>
+        <v>415.1592853891084</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_all</t>
+          <t>total_metersperminute_per30otip</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6982.550369179889</v>
+        <v>1921.369056708694</v>
       </c>
       <c r="C28" t="n">
-        <v>6910.531284109713</v>
+        <v>1933.397142085327</v>
       </c>
       <c r="D28" t="n">
-        <v>1.04</v>
+        <v>-0.62</v>
       </c>
       <c r="E28" t="n">
-        <v>308.265181489378</v>
+        <v>117.5788256070493</v>
       </c>
       <c r="F28" t="n">
-        <v>593.8779462825538</v>
+        <v>75.84925843295528</v>
       </c>
       <c r="G28" t="n">
-        <v>6590.314637982676</v>
+        <v>1741.475776568035</v>
       </c>
       <c r="H28" t="n">
-        <v>5906.249874689245</v>
+        <v>1812.256080771003</v>
       </c>
       <c r="I28" t="n">
-        <v>7346.355586546497</v>
+        <v>2055.524019744857</v>
       </c>
       <c r="J28" t="n">
-        <v>8548.997061138083</v>
+        <v>2147.247733113258</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_all</t>
+          <t>total_distance_per30otip</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5365.459646537379</v>
+        <v>57641.09910175363</v>
       </c>
       <c r="C29" t="n">
-        <v>5311.868269531948</v>
+        <v>58001.91795405049</v>
       </c>
       <c r="D29" t="n">
-        <v>1.01</v>
+        <v>-0.62</v>
       </c>
       <c r="E29" t="n">
-        <v>259.6924564886341</v>
+        <v>3527.352342024138</v>
       </c>
       <c r="F29" t="n">
-        <v>484.0261122607125</v>
+        <v>2275.473457244655</v>
       </c>
       <c r="G29" t="n">
-        <v>5014.373907385119</v>
+        <v>52244.33121438583</v>
       </c>
       <c r="H29" t="n">
-        <v>4541.135609379274</v>
+        <v>54367.72053174261</v>
       </c>
       <c r="I29" t="n">
-        <v>5666.752883553461</v>
+        <v>61665.7730238195</v>
       </c>
       <c r="J29" t="n">
-        <v>6687.761944585897</v>
+        <v>64417.41397565099</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_all</t>
+          <t>total_distance_per_Match</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>877.8905998513952</v>
+        <v>101948.4128754334</v>
       </c>
       <c r="C30" t="n">
-        <v>885.3020344406092</v>
+        <v>102387.4598188055</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.84</v>
+        <v>-0.43</v>
       </c>
       <c r="E30" t="n">
-        <v>24.73330602495416</v>
+        <v>797.9847223814787</v>
       </c>
       <c r="F30" t="n">
-        <v>22.21686179562156</v>
+        <v>2164.4746466789</v>
       </c>
       <c r="G30" t="n">
-        <v>852.2641453443797</v>
+        <v>101148.845573716</v>
       </c>
       <c r="H30" t="n">
-        <v>838.4477022217351</v>
+        <v>98900.32164948646</v>
       </c>
       <c r="I30" t="n">
-        <v>906.7273468414577</v>
+        <v>103077.4021386138</v>
       </c>
       <c r="J30" t="n">
-        <v>919.0891108513039</v>
+        <v>107480.1303104399</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_all</t>
+          <t>medaccel_count_per30tip</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>611.008665694976</v>
+        <v>576.2573550139537</v>
       </c>
       <c r="C31" t="n">
-        <v>606.0813354666413</v>
+        <v>577.9363457536414</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8100000000000001</v>
+        <v>-0.29</v>
       </c>
       <c r="E31" t="n">
-        <v>25.55061383037476</v>
+        <v>43.07443470347997</v>
       </c>
       <c r="F31" t="n">
-        <v>46.78359016677163</v>
+        <v>17.63515464353968</v>
       </c>
       <c r="G31" t="n">
-        <v>579.2482273815925</v>
+        <v>535.4881505135651</v>
       </c>
       <c r="H31" t="n">
-        <v>534.7207946858389</v>
+        <v>546.9649452647665</v>
       </c>
       <c r="I31" t="n">
-        <v>643.1295316017238</v>
+        <v>631.2215044736273</v>
       </c>
       <c r="J31" t="n">
-        <v>737.4213733627826</v>
+        <v>602.7649209827296</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_all</t>
+          <t>medaccel_count_per_Match</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>516.3198457892372</v>
+        <v>1083.150966276052</v>
       </c>
       <c r="C32" t="n">
-        <v>512.6962430386832</v>
+        <v>1080.059280540208</v>
       </c>
       <c r="D32" t="n">
-        <v>0.71</v>
+        <v>0.29</v>
       </c>
       <c r="E32" t="n">
-        <v>22.14531411288011</v>
+        <v>30.76014088911031</v>
       </c>
       <c r="F32" t="n">
-        <v>38.48837565532386</v>
+        <v>30.07369104258099</v>
       </c>
       <c r="G32" t="n">
-        <v>488.4334590896526</v>
+        <v>1043.358492580089</v>
       </c>
       <c r="H32" t="n">
-        <v>455.7127143845605</v>
+        <v>1018.578143580321</v>
       </c>
       <c r="I32" t="n">
-        <v>544.0137564681897</v>
+        <v>1120.653032847469</v>
       </c>
       <c r="J32" t="n">
-        <v>622.47444551949</v>
+        <v>1139.030122782213</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>total_distance_per30tip</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3413.389484521112</v>
+        <v>54227.62989991539</v>
       </c>
       <c r="C33" t="n">
-        <v>3435.329989578204</v>
+        <v>54384.65512879604</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.64</v>
+        <v>-0.29</v>
       </c>
       <c r="E33" t="n">
-        <v>173.7964389024005</v>
+        <v>3319.123632611351</v>
       </c>
       <c r="F33" t="n">
-        <v>556.3293553007516</v>
+        <v>1248.36560622177</v>
       </c>
       <c r="G33" t="n">
-        <v>3166.75182288359</v>
+        <v>50713.26096282525</v>
       </c>
       <c r="H33" t="n">
-        <v>2803.614667939856</v>
+        <v>52571.18898850332</v>
       </c>
       <c r="I33" t="n">
-        <v>3656.218461286545</v>
+        <v>59132.39195637465</v>
       </c>
       <c r="J33" t="n">
-        <v>5093.182468857197</v>
+        <v>56585.22942034165</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_otip</t>
+          <t>total_metersperminute_per30tip</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1921.369056708694</v>
+        <v>1807.588149029572</v>
       </c>
       <c r="C34" t="n">
-        <v>1933.397142085327</v>
+        <v>1812.821493985028</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.62</v>
+        <v>-0.29</v>
       </c>
       <c r="E34" t="n">
-        <v>117.5788256070493</v>
+        <v>110.6389375267606</v>
       </c>
       <c r="F34" t="n">
-        <v>75.84925843295528</v>
+        <v>41.61203321987711</v>
       </c>
       <c r="G34" t="n">
-        <v>1741.475776568035</v>
+        <v>1690.440770990897</v>
       </c>
       <c r="H34" t="n">
-        <v>1812.256080771003</v>
+        <v>1752.370680344522</v>
       </c>
       <c r="I34" t="n">
-        <v>2055.524019744857</v>
+        <v>1971.081921566278</v>
       </c>
       <c r="J34" t="n">
-        <v>2147.247733113258</v>
+        <v>1886.173303597148</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_all</t>
+          <t>hsr_count_per30tip</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>101948.4128754334</v>
+        <v>352.0503627929352</v>
       </c>
       <c r="C35" t="n">
-        <v>102387.4598188055</v>
+        <v>352.9788850584641</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.43</v>
+        <v>-0.26</v>
       </c>
       <c r="E35" t="n">
-        <v>797.9847223814787</v>
+        <v>32.99939124869289</v>
       </c>
       <c r="F35" t="n">
-        <v>2164.4746466789</v>
+        <v>17.41106205674458</v>
       </c>
       <c r="G35" t="n">
-        <v>101148.845573716</v>
+        <v>317.2502711229578</v>
       </c>
       <c r="H35" t="n">
-        <v>98900.32164948646</v>
+        <v>328.1660974364638</v>
       </c>
       <c r="I35" t="n">
-        <v>103077.4021386138</v>
+        <v>392.7301489265768</v>
       </c>
       <c r="J35" t="n">
-        <v>107480.1303104399</v>
+        <v>382.2335021919338</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_all</t>
+          <t>running_distance_per30tip</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1083.150966276052</v>
+        <v>9196.556168332765</v>
       </c>
       <c r="C36" t="n">
-        <v>1080.059280540208</v>
+        <v>9174.708690454889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="E36" t="n">
-        <v>30.76014088911031</v>
+        <v>903.7371645367128</v>
       </c>
       <c r="F36" t="n">
-        <v>30.07369104258099</v>
+        <v>452.5963471071689</v>
       </c>
       <c r="G36" t="n">
-        <v>1043.358492580089</v>
+        <v>8392.482064571981</v>
       </c>
       <c r="H36" t="n">
-        <v>1018.578143580321</v>
+        <v>8178.064749029167</v>
       </c>
       <c r="I36" t="n">
-        <v>1120.653032847469</v>
+        <v>10608.36755745037</v>
       </c>
       <c r="J36" t="n">
-        <v>1139.030122782213</v>
+        <v>9804.801738754386</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_tip</t>
+          <t>total_metersperminute_per_Match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1807.588149029572</v>
+        <v>1520.429141239383</v>
       </c>
       <c r="C37" t="n">
-        <v>1812.821493985028</v>
+        <v>1522.9558650912</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.29</v>
+        <v>-0.17</v>
       </c>
       <c r="E37" t="n">
-        <v>110.6389375267606</v>
+        <v>43.89195784568512</v>
       </c>
       <c r="F37" t="n">
-        <v>41.61203321987711</v>
+        <v>44.65567954606551</v>
       </c>
       <c r="G37" t="n">
-        <v>1690.440770990897</v>
+        <v>1460.250717858118</v>
       </c>
       <c r="H37" t="n">
-        <v>1752.370680344522</v>
+        <v>1429.806720470185</v>
       </c>
       <c r="I37" t="n">
-        <v>1971.081921566278</v>
+        <v>1566.730243151901</v>
       </c>
       <c r="J37" t="n">
-        <v>1886.173303597148</v>
+        <v>1602.249834091883</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_all</t>
+          <t>running_distance_per_Match</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1520.429141239383</v>
+        <v>14140.68185935396</v>
       </c>
       <c r="C38" t="n">
-        <v>1522.9558650912</v>
+        <v>14125.39137416124</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.17</v>
+        <v>0.11</v>
       </c>
       <c r="E38" t="n">
-        <v>43.89195784568512</v>
+        <v>394.4466057191528</v>
       </c>
       <c r="F38" t="n">
-        <v>44.65567954606551</v>
+        <v>935.2243447917148</v>
       </c>
       <c r="G38" t="n">
-        <v>1460.250717858118</v>
+        <v>13582.81249628817</v>
       </c>
       <c r="H38" t="n">
-        <v>1429.806720470185</v>
+        <v>12536.72993700095</v>
       </c>
       <c r="I38" t="n">
-        <v>1566.730243151901</v>
+        <v>14607.25607469101</v>
       </c>
       <c r="J38" t="n">
-        <v>1602.249834091883</v>
+        <v>16585.50248271672</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>psv99</t>
+          <t>hsr_distance_per30tip</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>372.0077376502733</v>
+        <v>3797.498121861048</v>
       </c>
       <c r="C39" t="n">
-        <v>371.4371185241941</v>
+        <v>3801.506561058772</v>
       </c>
       <c r="D39" t="n">
-        <v>0.15</v>
+        <v>-0.11</v>
       </c>
       <c r="E39" t="n">
-        <v>8.956271199440106</v>
+        <v>354.1234873649761</v>
       </c>
       <c r="F39" t="n">
-        <v>7.738974804704545</v>
+        <v>197.4426848506531</v>
       </c>
       <c r="G39" t="n">
-        <v>362.0987528956378</v>
+        <v>3445.604814766064</v>
       </c>
       <c r="H39" t="n">
-        <v>360.1145346300518</v>
+        <v>3403.096549594182</v>
       </c>
       <c r="I39" t="n">
-        <v>382.2895863511616</v>
+        <v>4324.069060874308</v>
       </c>
       <c r="J39" t="n">
-        <v>388.213201223119</v>
+        <v>4048.835543160053</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_all</t>
+          <t>hi_count_per30tip</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>14140.68185935396</v>
+        <v>418.6530603254297</v>
       </c>
       <c r="C40" t="n">
-        <v>14125.39137416124</v>
+        <v>418.2659055280428</v>
       </c>
       <c r="D40" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E40" t="n">
-        <v>394.4466057191528</v>
+        <v>38.68837458456516</v>
       </c>
       <c r="F40" t="n">
-        <v>935.2243447917148</v>
+        <v>20.97607054452389</v>
       </c>
       <c r="G40" t="n">
-        <v>13582.81249628817</v>
+        <v>378.2578294271675</v>
       </c>
       <c r="H40" t="n">
-        <v>12536.72993700095</v>
+        <v>386.7639169234935</v>
       </c>
       <c r="I40" t="n">
-        <v>14607.25607469101</v>
+        <v>465.8333373627646</v>
       </c>
       <c r="J40" t="n">
-        <v>16585.50248271672</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>hsr_distance_full_otip</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>2705.675705381019</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2708.215899106986</v>
-      </c>
-      <c r="D41" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="E41" t="n">
-        <v>137.4437812126859</v>
-      </c>
-      <c r="F41" t="n">
-        <v>432.8025992886028</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2512.264471963871</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2240.149115371444</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2898.498343348916</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3992.576644895034</v>
+        <v>454.2969042564966</v>
       </c>
     </row>
   </sheetData>
